--- a/data/online.xlsx
+++ b/data/online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\R\tcmiqe\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A91D00-90A8-4B4F-AC6F-1A3723D410C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E88D1A-09D2-4BF6-A221-8AD91BD53BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,50 +20,229 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
   <si>
     <t>数据库</t>
   </si>
   <si>
-    <t>英文全称</t>
-  </si>
-  <si>
-    <t>中文全称</t>
-  </si>
-  <si>
-    <t>年份</t>
-  </si>
-  <si>
-    <t>DOI</t>
-  </si>
-  <si>
     <t>链接状态</t>
   </si>
   <si>
-    <t>Traditional Chinese Medicine Information Database 1.0</t>
-  </si>
-  <si>
-    <t>中药信息数据库</t>
-  </si>
-  <si>
     <t>可用</t>
   </si>
   <si>
+    <t>失效</t>
+  </si>
+  <si>
+    <t>TCM-ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCM Database@Taiwan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCMSP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCMID 1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCM-Mesh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDTCM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YaTCM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCMID 2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bidd.group/TCMID/index.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tcm.cmu.edu.tw/index.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://old.tcmsp-e.com/tcmsp.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mesh.tcm.microbioinformatics.org/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.megabionet.org/tcmid/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cadd.gdhtcm.com:2180/PDTCM/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cadd.pharmacy.nankai.edu.cn/yatcm/home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.100.169.139/tcmid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.rcdd.org.cn/tcmanalyzer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCMAnalyzer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SymMap v2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.symmap.org/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETCM2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tcmip.cn/ETCM2/front/#/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tcmio.xielab.net/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCMIO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCMIP 2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tcmip.cn/TCMIP/index.php/Home/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuperTCM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcm.charite.de/supertcm/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDB 2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.medicinalplantbd.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCM-Suite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tcm-suite.aimicrobiome.cn/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCMSID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcm.scbdd.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT 2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hit2.badd-cao.net/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPMCP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cpmcp.top/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITCM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://itcm.biotcm.net/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCABM-TCM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bionet.ncpsb.org.cn/dcabm-tcm/#/Home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HERB 2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://47.92.70.12/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATMAN-TCM 2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bionet.ncpsb.org.cn/batman-tcm/#/home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM-MC 2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tm-mc.kr/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCMM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tcmm.net.cn/zh-hans/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>TCMBank</t>
-  </si>
-  <si>
-    <t>中药银行</t>
-  </si>
-  <si>
-    <t>TCM-ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bidd.group/TCMID/index.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>网址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcmbank.cn/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -71,15 +250,115 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TCMBank</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcmbank.cn/</t>
+    <t>10.1371/journal.pone.0015939</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1186/1758-2946-6-13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1093/nar/gks1100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1038/s41598-017-03039-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1080/07853890.2017.1364417</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.csbj.2018.11.002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1093/nar/gkx1028</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1021/acs.jcim.7b00549</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1093/nar/gky1021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1093/nar/gky987</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3389/fphar.2020.00439</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3389/fphar.2021.598200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.biopha.2021.112315</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1186/s13104-021-05721-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1002/imt2.47</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1186/s13321-022-00670-z</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1093/nar/gkab1011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1093/database/baac073</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1093/bib/bbad027</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1021/acs.jcim.3c00365</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1093/nar/gkaa1063</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1093/nar/gkad926</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1186/s12906-023-04331-y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.csbj.2024.04.016</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.1038/s41392-023-01339-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文献DOI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立年份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -485,96 +764,510 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="39.875" customWidth="1"/>
-    <col min="3" max="3" width="31.875" customWidth="1"/>
-    <col min="6" max="6" width="35.25" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="34.875" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2">
+        <v>2005</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2011</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>2013</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>2013</v>
+      </c>
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>2017</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>2017</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>2005</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>2018</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>2019</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>2019</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>2021</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>2021</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>2021</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>2022</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>2022</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>2023</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>2023</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
         <v>2024</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>2024</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>2024</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26">
+        <v>2024</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>2024</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{6E35C094-2163-44F3-BB29-A83716512FF6}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{3D489001-ABD3-49E5-858A-9586BC27FAB2}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3ABEDDD9-9432-4511-8E15-E6B8790DD57D}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{89490DF1-F845-4D62-B0EE-52B0FA7910CF}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{3BE404BB-D25C-434C-AECE-1D3242F308BC}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{3E29AD8C-F2BB-4092-8270-FDA7250CCB2D}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{F9840F1C-3C12-4AC7-8A01-3EE556C15E4F}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{89D6CD6B-F69F-44FF-946E-F8242DA7731D}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{D40AC072-BD28-4995-B590-B49B11595AE1}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{4FE46DBF-948A-4048-9B87-3B8C8DCC8C1D}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{BCC1A9B1-6B20-4B81-A3C0-41565F836482}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{EA1AD2AF-B867-4AAD-B6F9-7AB2E37572FF}"/>
+    <hyperlink ref="B12" r:id="rId11" location="/" xr:uid="{690920E8-CE39-430D-B6D9-B4E88A000E98}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{6230CBB2-87CB-4C75-9C57-9DF2EA18DE7B}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{08853C99-0972-4752-A927-19244FD8F393}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{892FBEC9-8D0C-4BCA-85DC-FA473AB07724}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{57C87E78-D8DD-4DFD-A417-D400EACE24D6}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{C042281D-9C91-4A00-A7DE-908AC58BCFFC}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{CBBFE994-5B3C-4AF5-A204-16B24E00B845}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{808A95CC-AB71-4003-8590-F951C5D72FEB}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{C03FE23F-81B0-40B2-97A7-8C0A43A27197}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{6DD92582-243B-43C1-98F9-874B46B4EC07}"/>
+    <hyperlink ref="B22" r:id="rId21" location="/Home" xr:uid="{0043B58C-F4DE-4354-8021-93D9B5707B56}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{C65C48A4-A95A-49EF-850C-5721CD75F155}"/>
+    <hyperlink ref="B24" r:id="rId23" location="/home" xr:uid="{F9F8ED8D-ECAA-464A-9D8C-46A324981723}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{DEF89131-1378-4792-8A8E-DD98E4AF5B01}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{D7ACD8B7-EC28-4829-A2E1-0625091C70EB}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{708C7F2D-8D5E-4EAB-ACC7-04CC64E61602}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId27"/>
 </worksheet>
 </file>